--- a/test_1.xlsx
+++ b/test_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\macro_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JBJ\macro_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A21F790-FA61-44B3-8E22-6FECD60C845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC342B6-916D-43A6-B4B7-792FBBEEEA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BCF1561-F6BC-4AFC-94A1-D196D8616F00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,61 +39,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>70DG3CNN0100</t>
-  </si>
-  <si>
-    <t>70DG3CNN0200</t>
-  </si>
-  <si>
     <t>70DG3CNN0300</t>
   </si>
   <si>
-    <t>70DG3CNN0600</t>
-  </si>
-  <si>
-    <t>70DG3CNN0700</t>
-  </si>
-  <si>
-    <t>70DG3CNN0800</t>
-  </si>
-  <si>
-    <t>70DG3CAS0300</t>
-  </si>
-  <si>
-    <t>70DG3CAS0200</t>
-  </si>
-  <si>
-    <t>70DG3CAS0400</t>
-  </si>
-  <si>
-    <t>70DG3CAS0500</t>
-  </si>
-  <si>
-    <t>70DG3CAS0100</t>
-  </si>
-  <si>
-    <t>70DG3CNN0500</t>
-  </si>
-  <si>
-    <t>70DG3CNN1000</t>
-  </si>
-  <si>
-    <t>70DG3CCA0100</t>
-  </si>
-  <si>
-    <t>70DG3CCA0200</t>
-  </si>
-  <si>
-    <t>70DG3BMR0100</t>
-  </si>
-  <si>
-    <t>70DG3BMR0200</t>
-  </si>
-  <si>
-    <t>70DG3CCA0300</t>
-  </si>
-  <si>
-    <t>70DG3CCA0400</t>
+    <t>71DG3CNN0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72DG3CNN0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71DG3CNN0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72DG3CNN0600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,7 +428,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +450,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>101401051300</v>
@@ -499,7 +461,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>101401051300</v>
@@ -510,7 +472,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>101401051300</v>
@@ -521,7 +483,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>101401051300</v>
@@ -532,7 +494,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>101401051300</v>
@@ -542,169 +504,49 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>101401051300</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>101401051300</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100906064000</v>
-      </c>
-      <c r="C9">
-        <v>160</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100906064000</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100906064000</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100906064000</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>100906064000</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>101401055300</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>101401055300</v>
-      </c>
-      <c r="C15">
-        <v>40</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>101001081400</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>101001081400</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>101001081400</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>101001081400</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>100514051500</v>
-      </c>
-      <c r="C20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100514051500</v>
-      </c>
-      <c r="C21">
-        <v>40</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
